--- a/Backlog/sprint_project.xlsx
+++ b/Backlog/sprint_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apuslive-my.sharepoint.com/personal/nurilhuda3333_oficeoriginal_com/Documents/Desktop/Machine Learning Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apuslive-my.sharepoint.com/personal/nurilhuda3333_oficeoriginal_com/Documents/Desktop/Github/Machine Learning Project/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{71A12267-6864-4EDF-8631-F75F18DD9555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EE9C40-A662-48DE-9383-5460213EA34E}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{71A12267-6864-4EDF-8631-F75F18DD9555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8E63CD-27BC-40B4-8889-ACC4C713DF5C}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1575" windowWidth="20910" windowHeight="11835" xr2:uid="{1D1D3CA6-E72C-4EC6-AC9E-1A402CD4E052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D1D3CA6-E72C-4EC6-AC9E-1A402CD4E052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,8 +601,8 @@
       <c r="D5" s="2">
         <v>44515</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,8 +618,8 @@
       <c r="D6" s="2">
         <v>44519</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,8 +635,8 @@
       <c r="D7" s="2">
         <v>44522</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,8 +652,8 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,8 +669,8 @@
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
